--- a/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/5d7ff4aa50fda7001a863736_semantic_fluency_fullA_2024-03-07_01h44.13.453_recording_Mic_cattestresgis_trials_0_2024-03-07_01h50.09.758.xlsx
+++ b/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/5d7ff4aa50fda7001a863736_semantic_fluency_fullA_2024-03-07_01h44.13.453_recording_Mic_cattestresgis_trials_0_2024-03-07_01h50.09.758.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/GroupA/transcriptions_collocations_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBCD769-0C60-E747-B828-7184AE727E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997A713-B186-8642-B240-1E31BABE2386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Word</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>or</t>
   </si>
   <si>
     <t>actress</t>
@@ -488,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,7 +593,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>17.5</v>
@@ -666,7 +663,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>40.4</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>41.6</v>
@@ -708,7 +705,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>48.2</v>
@@ -722,7 +719,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>52.5</v>
@@ -753,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>58.3</v>
       </c>
       <c r="C19">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="D19">
         <v>0.98414784669876099</v>
@@ -767,13 +764,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>58.3</v>
+        <v>60.3</v>
       </c>
       <c r="C20">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
       <c r="D20">
-        <v>0.98414784669876099</v>
+        <v>0.95840656757354736</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,13 +778,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>60.3</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="C21">
-        <v>61.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D21">
-        <v>0.95840656757354736</v>
+        <v>0.8102576732635498</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,13 +792,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>65.599999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C22">
-        <v>67.599999999999994</v>
+        <v>71.3</v>
       </c>
       <c r="D22">
-        <v>0.8102576732635498</v>
+        <v>0.97758424282073975</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,13 +806,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>70.099999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="C23">
-        <v>71.3</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D23">
-        <v>0.97758424282073975</v>
+        <v>0.8098028302192688</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,13 +820,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>77.5</v>
+        <v>85.5</v>
       </c>
       <c r="C24">
-        <v>78.599999999999994</v>
+        <v>86.4</v>
       </c>
       <c r="D24">
-        <v>0.8098028302192688</v>
+        <v>0.98210936784744263</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,13 +834,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>85.5</v>
+        <v>88.6</v>
       </c>
       <c r="C25">
-        <v>86.4</v>
+        <v>89.9</v>
       </c>
       <c r="D25">
-        <v>0.98210936784744263</v>
+        <v>0.44037306308746338</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>88.6</v>
+        <v>93.5</v>
       </c>
       <c r="C26">
-        <v>89.9</v>
+        <v>94.6</v>
       </c>
       <c r="D26">
-        <v>0.44037306308746338</v>
+        <v>0.52309435606002808</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -865,13 +862,13 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>93.5</v>
+        <v>97.7</v>
       </c>
       <c r="C27">
-        <v>94.6</v>
+        <v>99.3</v>
       </c>
       <c r="D27">
-        <v>0.52309435606002808</v>
+        <v>0.90582233667373657</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,13 +876,13 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>97.7</v>
+        <v>103.5</v>
       </c>
       <c r="C28">
-        <v>99.3</v>
+        <v>104.3</v>
       </c>
       <c r="D28">
-        <v>0.90582233667373657</v>
+        <v>0.66547322273254395</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,13 +890,13 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>103.5</v>
+        <v>106.8</v>
       </c>
       <c r="C29">
-        <v>104.3</v>
+        <v>107.5</v>
       </c>
       <c r="D29">
-        <v>0.66547322273254395</v>
+        <v>0.9203459620475769</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,13 +904,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>106.8</v>
+        <v>108.9</v>
       </c>
       <c r="C30">
-        <v>107.5</v>
+        <v>111.4</v>
       </c>
       <c r="D30">
-        <v>0.9203459620475769</v>
+        <v>0.89711356163024902</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,26 +918,12 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>108.9</v>
+        <v>117.7</v>
       </c>
       <c r="C31">
-        <v>111.4</v>
+        <v>118.6</v>
       </c>
       <c r="D31">
-        <v>0.89711356163024902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>117.7</v>
-      </c>
-      <c r="C32">
-        <v>118.6</v>
-      </c>
-      <c r="D32">
         <v>0.84585314989089966</v>
       </c>
     </row>
